--- a/files/fast_build/FastBuild时间对比.xlsx
+++ b/files/fast_build/FastBuild时间对比.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ue-book\files\fast_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74F7F8CA-D407-4ABC-993C-95C149612373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C885CB11-FD4F-4170-9B03-C14DDAB95AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="660" windowWidth="23040" windowHeight="15036" activeTab="2" xr2:uid="{1FF81656-7296-4B28-851F-49DC7756EBA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{1FF81656-7296-4B28-851F-49DC7756EBA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>模式</t>
   </si>
@@ -79,6 +82,9 @@
   </si>
   <si>
     <t>总计</t>
+  </si>
+  <si>
+    <t>时间(s)</t>
   </si>
 </sst>
 </file>
@@ -530,7 +536,7 @@
                   <c:v>1046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>272</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>194</c:v>
@@ -1431,7 +1437,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="captainchen(陈鹏)" refreshedDate="45561.397626157406" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{9B5E76D4-1393-47E5-873C-6BF8946651F2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="captainchen(陈鹏)" refreshedDate="45563.699913773147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{9B5E76D4-1393-47E5-873C-6BF8946651F2}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B4" sheet="Sheet1"/>
   </cacheSource>
@@ -1467,13 +1473,13 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="272"/>
+    <n v="230"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA24E82A-3F11-493F-A527-96967053F8A8}" name="数据透视表 1" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA24E82A-3F11-493F-A527-96967053F8A8}" name="数据透视表 1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="A2:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
@@ -1531,7 +1537,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D77D6F90-232D-4A9D-8B7E-F1C440F66ADB}" name="数据透视表 2" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D77D6F90-232D-4A9D-8B7E-F1C440F66ADB}" name="数据透视表 2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="8">
   <location ref="A2:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
@@ -1621,6 +1627,39 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A26DCFDD-6358-48BA-9FA8-370CDE667546}" name="表3" displayName="表3" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{A26DCFDD-6358-48BA-9FA8-370CDE667546}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{AA3740F8-AE87-41DC-8A8B-52094038AF3D}" name="模式"/>
+    <tableColumn id="2" xr3:uid="{A32AC5A8-2B01-4746-A330-714958968ABD}" name="时间(s)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C500105F-E71C-4DA0-AA0B-7E18F74F3B54}" name="表1" displayName="表1" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{C500105F-E71C-4DA0-AA0B-7E18F74F3B54}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0BEF54D7-E895-4378-8ABA-77760753D82F}" name="模式"/>
+    <tableColumn id="2" xr3:uid="{50601EF3-505A-4749-97AB-436B58FF93B7}" name="时间(s)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EE4F5EA7-6FAE-49BC-953D-1F7FCA367FAA}" name="表2" displayName="表2" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{EE4F5EA7-6FAE-49BC-953D-1F7FCA367FAA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{187510A7-6C26-4906-A8BF-3469976972AE}" name="模式"/>
+    <tableColumn id="2" xr3:uid="{7A02EC07-B356-47AE-9941-32CB4E1B94A3}" name="时间(s)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1923,15 +1962,15 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1939,7 +1978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1947,7 +1986,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1955,12 +1994,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>272</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1971,20 +2010,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700DCB79-BCF8-4E3B-9747-86CE5B4D8341}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3956684-4A67-4E09-A1E3-F0EA16DC4806}">
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1992,7 +2069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2000,15 +2077,15 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>272</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2016,12 +2093,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -2030,21 +2107,91 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8150205A-EB5C-434A-B1E9-10C325C7CA09}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F12A8D-6B2C-40CA-B59D-F32954850D45}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD788BE4-35EB-43C1-943B-A7B6EE7576AE}">
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2060,15 +2207,15 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>272</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2076,12 +2223,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
